--- a/files/LISTA DE PRECIOS WEB.xlsx
+++ b/files/LISTA DE PRECIOS WEB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\SAMCOR\LocalDiezDeJulio\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBCD86E-4277-45D5-AF2E-B77C9414E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8184FF-AD4D-4789-8C80-5A52083EEDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="621">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -1897,6 +1897,9 @@
   </si>
   <si>
     <t>45.000</t>
+  </si>
+  <si>
+    <t>225/75R16C</t>
   </si>
 </sst>
 </file>
@@ -2024,1719 +2027,1655 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+  <dxfs count="177">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3758,13 +3697,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -3908,53 +3841,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:I269" totalsRowShown="0" headerRowDxfId="183" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:I269" totalsRowShown="0" headerRowDxfId="176" tableBorderDxfId="175">
   <autoFilter ref="A1:I269" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}">
     <filterColumn colId="1">
       <filters>
-        <filter val="165/50R15"/>
-        <filter val="175/50R15"/>
-        <filter val="175/55R15"/>
-        <filter val="175/60R15"/>
-        <filter val="175/65R15"/>
-        <filter val="185/45R15"/>
-        <filter val="185/55R15"/>
-        <filter val="185/60R15"/>
-        <filter val="185/65R15"/>
-        <filter val="185/65R15C"/>
-        <filter val="195/45R15"/>
-        <filter val="195/50R15"/>
-        <filter val="195/55R15"/>
-        <filter val="195/60R15"/>
-        <filter val="195/65R15"/>
-        <filter val="195/70R15C"/>
-        <filter val="195R15C"/>
-        <filter val="205/50R15"/>
-        <filter val="205/55R15"/>
-        <filter val="205/60R15"/>
-        <filter val="205/65R15"/>
-        <filter val="205/70R15"/>
-        <filter val="205/70R15C"/>
-        <filter val="215/70R15"/>
-        <filter val="215/70R15C"/>
-        <filter val="215/75R15"/>
-        <filter val="225/50R15"/>
-        <filter val="225/70R15C"/>
-        <filter val="235/75R15"/>
-        <filter val="31/1050R15"/>
+        <filter val="185/55R16"/>
+        <filter val="195/45R16"/>
+        <filter val="195/50R16"/>
+        <filter val="195/55R16"/>
+        <filter val="195/60R16"/>
+        <filter val="195/60R16C"/>
+        <filter val="195/75R16C"/>
+        <filter val="205/45R16"/>
+        <filter val="205/50ZR16"/>
+        <filter val="205/55R16"/>
+        <filter val="205/60R16"/>
+        <filter val="205/65R16"/>
+        <filter val="205/65R16C"/>
+        <filter val="205/75R16C"/>
+        <filter val="215/45ZR16"/>
+        <filter val="215/55R16"/>
+        <filter val="215/60R16"/>
+        <filter val="215/60R16C"/>
+        <filter val="215/65R16"/>
+        <filter val="215/65R16C"/>
+        <filter val="215/70R16"/>
+        <filter val="215/70R16C"/>
+        <filter val="215/75R16C"/>
+        <filter val="225/65R16"/>
+        <filter val="225/65R16C"/>
+        <filter val="225/70R16"/>
+        <filter val="225/75R16"/>
+        <filter val="235/60R16"/>
+        <filter val="235/65R16C"/>
+        <filter val="235/70R16"/>
+        <filter val="245/70R16"/>
+        <filter val="245/75R16"/>
+        <filter val="255/70R16"/>
+        <filter val="265/70R16"/>
+        <filter val="265/75R16"/>
+        <filter val="285/75R16"/>
+        <filter val="650R16"/>
+        <filter val="700R16"/>
+        <filter val="750R16"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EA449B72-83DE-46B5-B319-FA996C850BC5}" name="SKU"/>
-    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="179"/>
-    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="45.000" dataDxfId="178"/>
-    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X 4" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="174"/>
+    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="45.000" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X 4" dataDxfId="169"/>
     <tableColumn id="8" xr3:uid="{ABBAE1A1-9F2B-4906-AADA-A3B79555A4EC}" name="INSTALACION"/>
-    <tableColumn id="9" xr3:uid="{3094B573-68AE-4044-9B45-F5BDA91F5BA0}" name="ORIGEN" dataDxfId="171">
+    <tableColumn id="9" xr3:uid="{3094B573-68AE-4044-9B45-F5BDA91F5BA0}" name="ORIGEN" dataDxfId="168">
       <calculatedColumnFormula>IFERROR(VLOOKUP(C2, Tabla2[], 2, FALSE), "Desconocido")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3963,11 +3905,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C90C8F6B-AB25-4D66-AF6B-2B72F614F3B4}" name="Tabla2" displayName="Tabla2" ref="A1:B48" totalsRowShown="0" headerRowDxfId="172" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C90C8F6B-AB25-4D66-AF6B-2B72F614F3B4}" name="Tabla2" displayName="Tabla2" ref="A1:B48" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:B48" xr:uid="{C90C8F6B-AB25-4D66-AF6B-2B72F614F3B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{65803FC0-3118-4353-BF5A-0BDB5FA6ADC5}" name="Marca" dataDxfId="175"/>
-    <tableColumn id="2" xr3:uid="{18CEFE8F-D6FE-4FD9-8AB1-2A69C0CFEF40}" name="País" dataDxfId="174"/>
+    <tableColumn id="1" xr3:uid="{65803FC0-3118-4353-BF5A-0BDB5FA6ADC5}" name="Marca" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{18CEFE8F-D6FE-4FD9-8AB1-2A69C0CFEF40}" name="País" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4293,7 +4235,7 @@
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4622,7 +4564,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -4954,7 +4896,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -4980,7 +4922,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -4994,7 +4936,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
@@ -5058,7 +5000,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
@@ -5072,7 +5014,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="3">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
@@ -5136,7 +5078,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -5150,7 +5092,7 @@
         <v>81</v>
       </c>
       <c r="E33" s="3">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="5"/>
@@ -5162,7 +5104,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -5176,7 +5118,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="3">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
@@ -5370,7 +5312,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>531</v>
       </c>
@@ -5422,7 +5364,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -5448,7 +5390,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -5462,7 +5404,7 @@
         <v>64</v>
       </c>
       <c r="E45" s="3">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="5"/>
@@ -5474,7 +5416,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>577</v>
       </c>
@@ -5488,7 +5430,7 @@
         <v>578</v>
       </c>
       <c r="E46" s="3">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="5"/>
@@ -5552,7 +5494,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
@@ -5566,7 +5508,7 @@
         <v>111</v>
       </c>
       <c r="E49" s="3">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="5"/>
@@ -5630,7 +5572,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -5656,7 +5598,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
@@ -5812,7 +5754,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>135</v>
       </c>
@@ -5838,7 +5780,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>137</v>
       </c>
@@ -5852,7 +5794,7 @@
         <v>64</v>
       </c>
       <c r="E60" s="3">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="5"/>
@@ -5864,7 +5806,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -5890,7 +5832,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>141</v>
       </c>
@@ -5904,7 +5846,7 @@
         <v>72</v>
       </c>
       <c r="E62" s="3">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="5"/>
@@ -5916,7 +5858,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>142</v>
       </c>
@@ -5930,7 +5872,7 @@
         <v>143</v>
       </c>
       <c r="E63" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="5"/>
@@ -5942,7 +5884,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -5956,7 +5898,7 @@
         <v>145</v>
       </c>
       <c r="E64" s="3">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="5"/>
@@ -5968,7 +5910,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>579</v>
       </c>
@@ -5982,7 +5924,7 @@
         <v>581</v>
       </c>
       <c r="E65" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="5"/>
@@ -5994,7 +5936,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>582</v>
       </c>
@@ -6008,7 +5950,7 @@
         <v>583</v>
       </c>
       <c r="E66" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="5"/>
@@ -6020,7 +5962,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
@@ -6034,7 +5976,7 @@
         <v>64</v>
       </c>
       <c r="E67" s="3">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="5"/>
@@ -6072,7 +6014,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -6086,7 +6028,7 @@
         <v>64</v>
       </c>
       <c r="E69" s="3">
-        <v>53000</v>
+        <v>50000</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="5"/>
@@ -6098,7 +6040,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>539</v>
       </c>
@@ -6110,7 +6052,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="5"/>
@@ -6122,7 +6064,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>150</v>
       </c>
@@ -6136,7 +6078,7 @@
         <v>145</v>
       </c>
       <c r="E71" s="3">
-        <v>58000</v>
+        <v>50000</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="5"/>
@@ -6148,7 +6090,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>151</v>
       </c>
@@ -6162,7 +6104,7 @@
         <v>143</v>
       </c>
       <c r="E72" s="3">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="5"/>
@@ -6174,7 +6116,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -6200,7 +6142,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -6214,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="3">
-        <v>53000</v>
+        <v>60000</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="5"/>
@@ -6252,7 +6194,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -6278,7 +6220,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -6292,7 +6234,7 @@
         <v>64</v>
       </c>
       <c r="E77" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="5"/>
@@ -6304,7 +6246,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -6318,7 +6260,7 @@
         <v>163</v>
       </c>
       <c r="E78" s="3">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="5"/>
@@ -6330,7 +6272,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>164</v>
       </c>
@@ -6344,7 +6286,7 @@
         <v>64</v>
       </c>
       <c r="E79" s="3">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="5"/>
@@ -6356,7 +6298,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>512</v>
       </c>
@@ -6382,7 +6324,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>168</v>
       </c>
@@ -6396,7 +6338,7 @@
         <v>64</v>
       </c>
       <c r="E81" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="5"/>
@@ -6408,7 +6350,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>584</v>
       </c>
@@ -6422,7 +6364,7 @@
         <v>583</v>
       </c>
       <c r="E82" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="5"/>
@@ -6460,7 +6402,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>172</v>
       </c>
@@ -6486,7 +6428,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>177</v>
       </c>
@@ -6500,7 +6442,7 @@
         <v>178</v>
       </c>
       <c r="E85" s="3">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="5"/>
@@ -6538,7 +6480,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>513</v>
       </c>
@@ -6562,7 +6504,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>183</v>
       </c>
@@ -6576,7 +6518,7 @@
         <v>94</v>
       </c>
       <c r="E88" s="3">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="5"/>
@@ -6614,7 +6556,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>186</v>
       </c>
@@ -6628,7 +6570,7 @@
         <v>64</v>
       </c>
       <c r="E90" s="3">
-        <v>53000</v>
+        <v>60000</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5"/>
@@ -6666,7 +6608,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
@@ -6680,7 +6622,7 @@
         <v>64</v>
       </c>
       <c r="E92" s="3">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="5"/>
@@ -6692,7 +6634,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>192</v>
       </c>
@@ -6706,7 +6648,7 @@
         <v>134</v>
       </c>
       <c r="E93" s="3">
-        <v>62000</v>
+        <v>60000</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="5"/>
@@ -6744,7 +6686,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>196</v>
       </c>
@@ -6770,7 +6712,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -6784,7 +6726,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="3">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="5"/>
@@ -6796,7 +6738,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>202</v>
       </c>
@@ -6810,7 +6752,7 @@
         <v>203</v>
       </c>
       <c r="E97" s="3">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="5"/>
@@ -6822,7 +6764,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>206</v>
       </c>
@@ -6836,7 +6778,7 @@
         <v>208</v>
       </c>
       <c r="E98" s="3">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="5"/>
@@ -6874,7 +6816,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>515</v>
       </c>
@@ -6900,7 +6842,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>516</v>
       </c>
@@ -6914,7 +6856,7 @@
         <v>94</v>
       </c>
       <c r="E101" s="3">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="5"/>
@@ -6926,7 +6868,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>213</v>
       </c>
@@ -6940,7 +6882,7 @@
         <v>214</v>
       </c>
       <c r="E102" s="3">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="5"/>
@@ -6952,7 +6894,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>215</v>
       </c>
@@ -6966,7 +6908,7 @@
         <v>216</v>
       </c>
       <c r="E103" s="3">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="5"/>
@@ -6978,7 +6920,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>542</v>
       </c>
@@ -6992,7 +6934,7 @@
         <v>64</v>
       </c>
       <c r="E104" s="3">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="5"/>
@@ -7004,7 +6946,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>218</v>
       </c>
@@ -7018,7 +6960,7 @@
         <v>94</v>
       </c>
       <c r="E105" s="3">
-        <v>80000</v>
+        <v>55000</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="5"/>
@@ -7030,7 +6972,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>219</v>
       </c>
@@ -7056,7 +6998,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>221</v>
       </c>
@@ -7082,7 +7024,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>223</v>
       </c>
@@ -7096,7 +7038,7 @@
         <v>226</v>
       </c>
       <c r="E108" s="3">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="5"/>
@@ -7108,7 +7050,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>227</v>
       </c>
@@ -7122,7 +7064,7 @@
         <v>94</v>
       </c>
       <c r="E109" s="3">
-        <v>85000</v>
+        <v>55000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="5"/>
@@ -7134,7 +7076,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -7148,7 +7090,7 @@
         <v>128</v>
       </c>
       <c r="E110" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="5"/>
@@ -7160,7 +7102,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>232</v>
       </c>
@@ -7174,7 +7116,7 @@
         <v>128</v>
       </c>
       <c r="E111" s="3">
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="5"/>
@@ -7264,7 +7206,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>239</v>
       </c>
@@ -7498,7 +7440,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -7576,7 +7518,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>261</v>
       </c>
@@ -7602,7 +7544,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>262</v>
       </c>
@@ -7732,7 +7674,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>271</v>
       </c>
@@ -7758,7 +7700,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>519</v>
       </c>
@@ -7784,7 +7726,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>273</v>
       </c>
@@ -7810,7 +7752,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>276</v>
       </c>
@@ -7824,7 +7766,7 @@
         <v>128</v>
       </c>
       <c r="E136" s="3">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="5"/>
@@ -7836,7 +7778,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>520</v>
       </c>
@@ -7850,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="E137" s="3">
-        <v>68000</v>
+        <v>70000</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="5"/>
@@ -7862,7 +7804,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -7888,7 +7830,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>281</v>
       </c>
@@ -7914,7 +7856,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>284</v>
       </c>
@@ -7992,7 +7934,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>288</v>
       </c>
@@ -8018,7 +7960,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>291</v>
       </c>
@@ -8032,7 +7974,7 @@
         <v>293</v>
       </c>
       <c r="E144" s="3">
-        <v>85000</v>
+        <v>100000</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="5"/>
@@ -8408,7 +8350,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>543</v>
       </c>
@@ -8422,7 +8364,7 @@
         <v>94</v>
       </c>
       <c r="E159" s="3">
-        <v>85000</v>
+        <v>55000</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="5"/>
@@ -8772,7 +8714,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>346</v>
       </c>
@@ -8786,7 +8728,7 @@
         <v>293</v>
       </c>
       <c r="E173" s="3">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="5"/>
@@ -8798,7 +8740,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>522</v>
       </c>
@@ -8928,7 +8870,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>547</v>
       </c>
@@ -8942,7 +8884,7 @@
         <v>548</v>
       </c>
       <c r="E179" s="3">
-        <v>85000</v>
+        <v>70000</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="5"/>
@@ -8954,7 +8896,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>354</v>
       </c>
@@ -8980,7 +8922,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>357</v>
       </c>
@@ -9006,7 +8948,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>359</v>
       </c>
@@ -9032,7 +8974,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>549</v>
       </c>
@@ -9058,12 +9000,12 @@
         <v>China</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>360</v>
+        <v>620</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -9072,7 +9014,7 @@
         <v>352</v>
       </c>
       <c r="E184" s="3">
-        <v>112000</v>
+        <v>100000</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="4"/>
@@ -9344,7 +9286,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>375</v>
       </c>
@@ -9370,7 +9312,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>377</v>
       </c>
@@ -9448,7 +9390,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>383</v>
       </c>
@@ -9552,7 +9494,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>388</v>
       </c>
@@ -9578,7 +9520,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>390</v>
       </c>
@@ -9604,7 +9546,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>557</v>
       </c>
@@ -9630,7 +9572,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>391</v>
       </c>
@@ -10020,7 +9962,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>409</v>
       </c>
@@ -10034,7 +9976,7 @@
         <v>411</v>
       </c>
       <c r="E221" s="3">
-        <v>95000</v>
+        <v>120000</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="5"/>
@@ -10046,7 +9988,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>412</v>
       </c>
@@ -10060,7 +10002,7 @@
         <v>94</v>
       </c>
       <c r="E222" s="3">
-        <v>110000</v>
+        <v>120000</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="5"/>
@@ -10098,7 +10040,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>417</v>
       </c>
@@ -10112,7 +10054,7 @@
         <v>352</v>
       </c>
       <c r="E224" s="3">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="4"/>
@@ -10124,7 +10066,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>419</v>
       </c>
@@ -10138,7 +10080,7 @@
         <v>411</v>
       </c>
       <c r="E225" s="3">
-        <v>95000</v>
+        <v>120000</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="5"/>
@@ -10150,7 +10092,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>420</v>
       </c>
@@ -10164,7 +10106,7 @@
         <v>94</v>
       </c>
       <c r="E226" s="3">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="4"/>
@@ -10176,7 +10118,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>421</v>
       </c>
@@ -10190,7 +10132,7 @@
         <v>226</v>
       </c>
       <c r="E227" s="3">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="5"/>
@@ -10202,7 +10144,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>420</v>
       </c>
@@ -10216,7 +10158,7 @@
         <v>528</v>
       </c>
       <c r="E228" s="3">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="5"/>
@@ -10332,7 +10274,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>431</v>
       </c>
@@ -10358,7 +10300,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>434</v>
       </c>
@@ -10566,7 +10508,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>446</v>
       </c>
@@ -10670,7 +10612,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>452</v>
       </c>
@@ -10956,7 +10898,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>471</v>
       </c>
@@ -11058,7 +11000,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>479</v>
       </c>
@@ -11188,7 +11130,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>492</v>
       </c>
@@ -11214,7 +11156,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>495</v>
       </c>
@@ -11240,7 +11182,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>568</v>
       </c>
@@ -11266,7 +11208,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>499</v>
       </c>
@@ -11294,88 +11236,88 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="170" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="169" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="168" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="duplicateValues" dxfId="167" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="166" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="165" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="164" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="163" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="162" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="161" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="158" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="157" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="156" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="154" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="153" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="148" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="152" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="151" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="150" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="149" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="148" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A28">
-    <cfRule type="duplicateValues" dxfId="147" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="146" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="145" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="142" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="141" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="140" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="138" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="137" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="135" priority="164"/>
@@ -11416,374 +11358,374 @@
   <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="123" priority="154"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="122" priority="203"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A54:A55">
-    <cfRule type="duplicateValues" dxfId="122" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="121" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="120" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="119" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="118" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="117" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="116" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="115" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="114" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="113" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="112" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="111" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="110" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="duplicateValues" dxfId="109" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="108" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="107" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="106" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="105" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="104" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="103" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="102" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A85">
-    <cfRule type="duplicateValues" dxfId="101" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="100" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="99" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="98" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="97" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="96" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="95" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="94" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="93" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="92" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="91" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="90" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="89" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="88" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="87" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="86" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="85" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="84" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="83" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="82" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A112">
-    <cfRule type="duplicateValues" dxfId="81" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="80" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="79" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A117">
-    <cfRule type="duplicateValues" dxfId="78" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="75" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="76" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="75" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="74" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="73" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="72" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="71" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130:A131">
-    <cfRule type="duplicateValues" dxfId="70" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="69" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="68" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="67" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="66" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="duplicateValues" dxfId="63" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" dxfId="65" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" dxfId="64" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="62" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="61" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A148">
+    <cfRule type="duplicateValues" dxfId="57" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="60" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="59" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="duplicateValues" dxfId="57" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158">
-    <cfRule type="duplicateValues" dxfId="56" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="55" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="54" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A167">
-    <cfRule type="duplicateValues" dxfId="53" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:A169">
-    <cfRule type="duplicateValues" dxfId="52" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="51" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="duplicateValues" dxfId="50" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="48" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="47" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="46" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180">
-    <cfRule type="duplicateValues" dxfId="44" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="duplicateValues" dxfId="38" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="42" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:A185">
-    <cfRule type="duplicateValues" dxfId="41" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:A187">
-    <cfRule type="duplicateValues" dxfId="40" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="39" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="38" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="37" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="36" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="duplicateValues" dxfId="35" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="duplicateValues" dxfId="34" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="32" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="duplicateValues" dxfId="31" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200">
-    <cfRule type="duplicateValues" dxfId="30" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="duplicateValues" dxfId="23" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A211">
-    <cfRule type="duplicateValues" dxfId="25" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220">
-    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="duplicateValues" dxfId="17" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="16" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="duplicateValues" dxfId="15" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228">
-    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" dxfId="12" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232">
-    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="8" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" dxfId="6" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
-    <cfRule type="duplicateValues" dxfId="5" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="4" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:A148">
-    <cfRule type="duplicateValues" dxfId="3" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="2" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="1" priority="202"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="0" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
